--- a/examples/data/batch_batch1_training_batchdata_noisy.xlsx
+++ b/examples/data/batch_batch1_training_batchdata_noisy.xlsx
@@ -846,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4916854829779206</v>
+        <v>0.2607118305826748</v>
       </c>
       <c r="D2" t="n">
-        <v>51.53814122518933</v>
+        <v>86.58224122722923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1605476026824219</v>
+        <v>-0.194251745467877</v>
       </c>
     </row>
     <row r="3">
@@ -863,13 +863,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5903366173651952</v>
+        <v>0.1433229263445609</v>
       </c>
       <c r="D3" t="n">
-        <v>47.04477903809251</v>
+        <v>86.30074735584871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2840161113617594</v>
+        <v>0.4760979816206624</v>
       </c>
     </row>
     <row r="4">
@@ -880,13 +880,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6482847852647085</v>
+        <v>0.3465224987268718</v>
       </c>
       <c r="D4" t="n">
-        <v>47.05967344784042</v>
+        <v>82.40498098273099</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5508174243493321</v>
+        <v>-0.04617925570788317</v>
       </c>
     </row>
     <row r="5">
@@ -897,13 +897,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8139306930788575</v>
+        <v>0.6606286740243559</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7370915565283</v>
+        <v>81.35155381000143</v>
       </c>
       <c r="E5" t="n">
-        <v>1.254679736710638</v>
+        <v>1.086085773919071</v>
       </c>
     </row>
     <row r="6">
@@ -914,13 +914,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.221337463668168</v>
+        <v>0.7072059114790494</v>
       </c>
       <c r="D6" t="n">
-        <v>38.64314332523863</v>
+        <v>76.9053271022166</v>
       </c>
       <c r="E6" t="n">
-        <v>2.187091025177575</v>
+        <v>1.275674131713703</v>
       </c>
     </row>
     <row r="7">
@@ -931,13 +931,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.560251443237467</v>
+        <v>1.281452089395786</v>
       </c>
       <c r="D7" t="n">
-        <v>33.47021790608454</v>
+        <v>67.92011851261924</v>
       </c>
       <c r="E7" t="n">
-        <v>3.106015921512773</v>
+        <v>2.284045568691468</v>
       </c>
     </row>
     <row r="8">
@@ -948,13 +948,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>2.039654110771267</v>
+        <v>1.757875618971923</v>
       </c>
       <c r="D8" t="n">
-        <v>25.64101013820287</v>
+        <v>61.07412900997206</v>
       </c>
       <c r="E8" t="n">
-        <v>4.333384461336562</v>
+        <v>3.924738434293051</v>
       </c>
     </row>
     <row r="9">
@@ -965,13 +965,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.559225855075067</v>
+        <v>2.475190580137981</v>
       </c>
       <c r="D9" t="n">
-        <v>20.2378741059077</v>
+        <v>49.72493395585144</v>
       </c>
       <c r="E9" t="n">
-        <v>5.017146462733881</v>
+        <v>6.049749363973344</v>
       </c>
     </row>
     <row r="10">
@@ -982,13 +982,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.754254870925581</v>
+        <v>3.735754587525885</v>
       </c>
       <c r="D10" t="n">
-        <v>15.09232158017083</v>
+        <v>35.34485309594061</v>
       </c>
       <c r="E10" t="n">
-        <v>5.989044024713238</v>
+        <v>8.530198545172324</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.144434948757379</v>
+        <v>4.532281842628445</v>
       </c>
       <c r="D11" t="n">
-        <v>10.00602065502239</v>
+        <v>22.68575716653009</v>
       </c>
       <c r="E11" t="n">
-        <v>6.722171313932866</v>
+        <v>10.05161169375461</v>
       </c>
     </row>
     <row r="12">
@@ -1016,13 +1016,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>3.453759085923031</v>
+        <v>5.148166713156415</v>
       </c>
       <c r="D12" t="n">
-        <v>7.036470305555672</v>
+        <v>13.48379381638977</v>
       </c>
       <c r="E12" t="n">
-        <v>7.295613231912729</v>
+        <v>12.63227643877123</v>
       </c>
     </row>
     <row r="13">
@@ -1033,13 +1033,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>3.692560634296318</v>
+        <v>5.514710387128434</v>
       </c>
       <c r="D13" t="n">
-        <v>3.973489613551741</v>
+        <v>6.446273358922222</v>
       </c>
       <c r="E13" t="n">
-        <v>7.912098565888122</v>
+        <v>13.57815389603109</v>
       </c>
     </row>
     <row r="14">
@@ -1050,13 +1050,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>3.763622124570412</v>
+        <v>5.890766284955653</v>
       </c>
       <c r="D14" t="n">
-        <v>1.528318616566812</v>
+        <v>1.808955719152385</v>
       </c>
       <c r="E14" t="n">
-        <v>8.124231356006836</v>
+        <v>13.81788816785999</v>
       </c>
     </row>
     <row r="15">
@@ -1067,13 +1067,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>3.830188535621611</v>
+        <v>6.203789973888749</v>
       </c>
       <c r="D15" t="n">
-        <v>1.962596700803358</v>
+        <v>2.069059665242438</v>
       </c>
       <c r="E15" t="n">
-        <v>8.21075264473329</v>
+        <v>14.05552423271236</v>
       </c>
     </row>
     <row r="16">
@@ -1084,13 +1084,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>3.944362221644016</v>
+        <v>6.151247439233878</v>
       </c>
       <c r="D16" t="n">
-        <v>1.633457232362763</v>
+        <v>0.8700556024477172</v>
       </c>
       <c r="E16" t="n">
-        <v>8.178777427084865</v>
+        <v>14.00863237921378</v>
       </c>
     </row>
     <row r="17">
@@ -1101,13 +1101,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>3.907832339297824</v>
+        <v>6.087556708946686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9069630039691361</v>
+        <v>0.56017547751703</v>
       </c>
       <c r="E17" t="n">
-        <v>8.395343799053986</v>
+        <v>14.46836756712724</v>
       </c>
     </row>
     <row r="18">
@@ -1118,13 +1118,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>3.869295595706196</v>
+        <v>6.064159626381498</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1374134823605665</v>
+        <v>0.2280575701626303</v>
       </c>
       <c r="E18" t="n">
-        <v>8.390456777634949</v>
+        <v>14.35688141571183</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>3.900514804710857</v>
+        <v>6.156098899253257</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01904213128491833</v>
+        <v>0.5916137758930876</v>
       </c>
       <c r="E19" t="n">
-        <v>8.675144473929143</v>
+        <v>14.71925356196701</v>
       </c>
     </row>
     <row r="20">
@@ -1152,13 +1152,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>3.849040113610635</v>
+        <v>5.972101842355398</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4595681123539536</v>
+        <v>-0.3248492833437174</v>
       </c>
       <c r="E20" t="n">
-        <v>8.639002345687908</v>
+        <v>14.17440967383386</v>
       </c>
     </row>
     <row r="21">
@@ -1169,13 +1169,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>3.945565585989047</v>
+        <v>6.298214609974625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4493284304179614</v>
+        <v>-1.034272526608184</v>
       </c>
       <c r="E21" t="n">
-        <v>8.332535844734924</v>
+        <v>14.49957502304193</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/batch_batch1_training_batchdata_noisy.xlsx
+++ b/examples/data/batch_batch1_training_batchdata_noisy.xlsx
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2099427309347474</v>
+        <v>0.2099313168751049</v>
       </c>
       <c r="D2" t="n">
-        <v>75.31783768760839</v>
+        <v>75.31774735902869</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06646093449488723</v>
+        <v>0.06646792161485443</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4122705449232664</v>
+        <v>0.4122427213553541</v>
       </c>
       <c r="D3" t="n">
-        <v>70.27430258384756</v>
+        <v>70.27478904156098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02435083895993728</v>
+        <v>0.02426383384264497</v>
       </c>
     </row>
     <row r="4">
@@ -499,13 +499,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9774785671625467</v>
+        <v>0.9775254206027957</v>
       </c>
       <c r="D4" t="n">
-        <v>68.43263449493017</v>
+        <v>68.43226203493077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9021868309696279</v>
+        <v>0.9022322234484395</v>
       </c>
     </row>
     <row r="5">
@@ -516,13 +516,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>1.328852875712093</v>
+        <v>1.328248280858009</v>
       </c>
       <c r="D5" t="n">
-        <v>61.19004444670585</v>
+        <v>61.19916207715384</v>
       </c>
       <c r="E5" t="n">
-        <v>1.62115804345175</v>
+        <v>1.619636402917701</v>
       </c>
     </row>
     <row r="6">
@@ -533,13 +533,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.456170430071533</v>
+        <v>1.456481060227129</v>
       </c>
       <c r="D6" t="n">
-        <v>54.65221343501931</v>
+        <v>54.64758707005348</v>
       </c>
       <c r="E6" t="n">
-        <v>3.485335727307837</v>
+        <v>3.486156798122411</v>
       </c>
     </row>
     <row r="7">
@@ -550,13 +550,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.30270699559241</v>
+        <v>2.304199548739405</v>
       </c>
       <c r="D7" t="n">
-        <v>46.37803762871307</v>
+        <v>46.35662937610574</v>
       </c>
       <c r="E7" t="n">
-        <v>5.378562067742783</v>
+        <v>5.382191763178195</v>
       </c>
     </row>
     <row r="8">
@@ -567,13 +567,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>3.09259978679931</v>
+        <v>3.096616609907413</v>
       </c>
       <c r="D8" t="n">
-        <v>34.77816206227787</v>
+        <v>34.72078437006338</v>
       </c>
       <c r="E8" t="n">
-        <v>6.958753714768808</v>
+        <v>6.968373818529462</v>
       </c>
     </row>
     <row r="9">
@@ -584,13 +584,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>3.641809266226288</v>
+        <v>3.642307514820856</v>
       </c>
       <c r="D9" t="n">
-        <v>23.4761043429405</v>
+        <v>23.46869762840608</v>
       </c>
       <c r="E9" t="n">
-        <v>8.554804548215298</v>
+        <v>8.556057628104739</v>
       </c>
     </row>
     <row r="10">
@@ -601,13 +601,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>4.521165036174752</v>
+        <v>4.521516385827872</v>
       </c>
       <c r="D10" t="n">
-        <v>14.25825509048724</v>
+        <v>14.25326052007242</v>
       </c>
       <c r="E10" t="n">
-        <v>10.27466958583482</v>
+        <v>10.27553524338195</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>5.026053487170723</v>
+        <v>5.027556820317312</v>
       </c>
       <c r="D11" t="n">
-        <v>8.779646518686798</v>
+        <v>8.758139053394819</v>
       </c>
       <c r="E11" t="n">
-        <v>11.15571279499831</v>
+        <v>11.15929333849354</v>
       </c>
     </row>
     <row r="12">
@@ -635,13 +635,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.280061966008088</v>
+        <v>5.280977428380749</v>
       </c>
       <c r="D12" t="n">
-        <v>4.747239361072767</v>
+        <v>4.734118020878983</v>
       </c>
       <c r="E12" t="n">
-        <v>12.17022326451289</v>
+        <v>12.17244402947187</v>
       </c>
     </row>
     <row r="13">
@@ -652,13 +652,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.18491385221087</v>
+        <v>5.185576330661674</v>
       </c>
       <c r="D13" t="n">
-        <v>1.292641386710098</v>
+        <v>1.282952239484261</v>
       </c>
       <c r="E13" t="n">
-        <v>12.27872885870416</v>
+        <v>12.28037839725015</v>
       </c>
     </row>
     <row r="14">
@@ -669,13 +669,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.59705137715677</v>
+        <v>5.59739503974086</v>
       </c>
       <c r="D14" t="n">
-        <v>1.230166582826574</v>
+        <v>1.225397941851791</v>
       </c>
       <c r="E14" t="n">
-        <v>12.23527087778678</v>
+        <v>12.23605601328675</v>
       </c>
     </row>
     <row r="15">
@@ -686,13 +686,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.538309755949915</v>
+        <v>5.538414478731851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0257239480903671</v>
+        <v>0.02431748498698577</v>
       </c>
       <c r="E15" t="n">
-        <v>12.10103694497182</v>
+        <v>12.10125150773478</v>
       </c>
     </row>
     <row r="16">
@@ -703,13 +703,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.521731970655201</v>
+        <v>5.521776889262854</v>
       </c>
       <c r="D16" t="n">
-        <v>2.408576110723469</v>
+        <v>2.407662145564244</v>
       </c>
       <c r="E16" t="n">
-        <v>12.26049267052337</v>
+        <v>12.26058507044501</v>
       </c>
     </row>
     <row r="17">
@@ -720,13 +720,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.454128427573111</v>
+        <v>5.454142481547599</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5743589678014502</v>
+        <v>-0.5745966027287601</v>
       </c>
       <c r="E17" t="n">
-        <v>12.5116417170815</v>
+        <v>12.51170291903416</v>
       </c>
     </row>
     <row r="18">
@@ -737,13 +737,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.617938397646804</v>
+        <v>5.617953232356573</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2384709286180021</v>
+        <v>-0.2385376070480587</v>
       </c>
       <c r="E18" t="n">
-        <v>12.14580043853156</v>
+        <v>12.14578591179362</v>
       </c>
     </row>
     <row r="19">
@@ -754,13 +754,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.642219273805768</v>
+        <v>5.642230002324895</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2964000939087466</v>
+        <v>-0.2963719867811506</v>
       </c>
       <c r="E19" t="n">
-        <v>12.39436613510295</v>
+        <v>12.3943621294811</v>
       </c>
     </row>
     <row r="20">
@@ -771,13 +771,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.490118892074898</v>
+        <v>5.490113234229988</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.390389887175573</v>
+        <v>-0.3903363228805277</v>
       </c>
       <c r="E20" t="n">
-        <v>12.77644941250945</v>
+        <v>12.77648276300587</v>
       </c>
     </row>
     <row r="21">
@@ -788,13 +788,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.552930636103794</v>
+        <v>5.55293132349824</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1336053850501929</v>
+        <v>0.1335941302378527</v>
       </c>
       <c r="E21" t="n">
-        <v>12.45835751204644</v>
+        <v>12.4583575678015</v>
       </c>
     </row>
   </sheetData>
@@ -846,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2607118305826748</v>
+        <v>0.4917114121801295</v>
       </c>
       <c r="D2" t="n">
-        <v>86.58224122722923</v>
+        <v>51.53806406405477</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.194251745467877</v>
+        <v>0.160578665894281</v>
       </c>
     </row>
     <row r="3">
@@ -863,13 +863,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1433229263445609</v>
+        <v>0.5903312492369268</v>
       </c>
       <c r="D3" t="n">
-        <v>86.30074735584871</v>
+        <v>47.0453696613071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4760979816206624</v>
+        <v>0.283949130976369</v>
       </c>
     </row>
     <row r="4">
@@ -880,13 +880,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3465224987268718</v>
+        <v>0.648291966615151</v>
       </c>
       <c r="D4" t="n">
-        <v>82.40498098273099</v>
+        <v>47.05941746548535</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04617925570788317</v>
+        <v>0.5507996824696042</v>
       </c>
     </row>
     <row r="5">
@@ -897,13 +897,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6606286740243559</v>
+        <v>0.8139503066892413</v>
       </c>
       <c r="D5" t="n">
-        <v>81.35155381000143</v>
+        <v>42.73656238021841</v>
       </c>
       <c r="E5" t="n">
-        <v>1.086085773919071</v>
+        <v>1.25474793535803</v>
       </c>
     </row>
     <row r="6">
@@ -914,13 +914,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7072059114790494</v>
+        <v>1.221236434977576</v>
       </c>
       <c r="D6" t="n">
-        <v>76.9053271022166</v>
+        <v>38.6445398968204</v>
       </c>
       <c r="E6" t="n">
-        <v>1.275674131713703</v>
+        <v>2.186867967601024</v>
       </c>
     </row>
     <row r="7">
@@ -931,13 +931,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.281452089395786</v>
+        <v>1.560618039736679</v>
       </c>
       <c r="D7" t="n">
-        <v>67.92011851261924</v>
+        <v>33.46483688424033</v>
       </c>
       <c r="E7" t="n">
-        <v>2.284045568691468</v>
+        <v>3.106928448904933</v>
       </c>
     </row>
     <row r="8">
@@ -948,13 +948,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.757875618971923</v>
+        <v>2.040996932197444</v>
       </c>
       <c r="D8" t="n">
-        <v>61.07412900997206</v>
+        <v>25.62208534984349</v>
       </c>
       <c r="E8" t="n">
-        <v>3.924738434293051</v>
+        <v>4.336644925949397</v>
       </c>
     </row>
     <row r="9">
@@ -965,13 +965,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.475190580137981</v>
+        <v>2.560910285652358</v>
       </c>
       <c r="D9" t="n">
-        <v>49.72493395585144</v>
+        <v>20.21420992408549</v>
       </c>
       <c r="E9" t="n">
-        <v>6.049749363973344</v>
+        <v>5.021118347126124</v>
       </c>
     </row>
     <row r="10">
@@ -982,13 +982,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>3.735754587525885</v>
+        <v>2.754853453803097</v>
       </c>
       <c r="D10" t="n">
-        <v>35.34485309594061</v>
+        <v>15.08358812706844</v>
       </c>
       <c r="E10" t="n">
-        <v>8.530198545172324</v>
+        <v>5.990514612289414</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>4.532281842628445</v>
+        <v>3.14495443910247</v>
       </c>
       <c r="D11" t="n">
-        <v>22.68575716653009</v>
+        <v>9.998591628678611</v>
       </c>
       <c r="E11" t="n">
-        <v>10.05161169375461</v>
+        <v>6.723417311322875</v>
       </c>
     </row>
     <row r="12">
@@ -1016,13 +1016,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.148166713156415</v>
+        <v>3.455435666050081</v>
       </c>
       <c r="D12" t="n">
-        <v>13.48379381638977</v>
+        <v>7.012558721916404</v>
       </c>
       <c r="E12" t="n">
-        <v>12.63227643877123</v>
+        <v>7.299590200498659</v>
       </c>
     </row>
     <row r="13">
@@ -1033,13 +1033,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.514710387128434</v>
+        <v>3.694073141309144</v>
       </c>
       <c r="D13" t="n">
-        <v>6.446273358922222</v>
+        <v>3.952136279528043</v>
       </c>
       <c r="E13" t="n">
-        <v>13.57815389603109</v>
+        <v>7.915695731507313</v>
       </c>
     </row>
     <row r="14">
@@ -1050,13 +1050,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.890766284955653</v>
+        <v>3.764610473641087</v>
       </c>
       <c r="D14" t="n">
-        <v>1.808955719152385</v>
+        <v>1.514434711987067</v>
       </c>
       <c r="E14" t="n">
-        <v>13.81788816785999</v>
+        <v>8.126584267243764</v>
       </c>
     </row>
     <row r="15">
@@ -1067,13 +1067,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>6.203789973888749</v>
+        <v>3.830827735263635</v>
       </c>
       <c r="D15" t="n">
-        <v>2.069059665242438</v>
+        <v>1.953492445752115</v>
       </c>
       <c r="E15" t="n">
-        <v>14.05552423271236</v>
+        <v>8.212258289079131</v>
       </c>
     </row>
     <row r="16">
@@ -1084,13 +1084,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>6.151247439233878</v>
+        <v>3.944734249460152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8700556024477172</v>
+        <v>1.628303338416341</v>
       </c>
       <c r="E16" t="n">
-        <v>14.00863237921378</v>
+        <v>8.179589776032049</v>
       </c>
     </row>
     <row r="17">
@@ -1101,13 +1101,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>6.087556708946686</v>
+        <v>3.908101932777172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.56017547751703</v>
+        <v>0.9031575419175519</v>
       </c>
       <c r="E17" t="n">
-        <v>14.46836756712724</v>
+        <v>8.395967798469433</v>
       </c>
     </row>
     <row r="18">
@@ -1118,13 +1118,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>6.064159626381498</v>
+        <v>3.869397822392016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2280575701626303</v>
+        <v>-0.1388597260548191</v>
       </c>
       <c r="E18" t="n">
-        <v>14.35688141571183</v>
+        <v>8.390695983358318</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>6.156098899253257</v>
+        <v>3.900589705959655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5916137758930876</v>
+        <v>0.01800415742900949</v>
       </c>
       <c r="E19" t="n">
-        <v>14.71925356196701</v>
+        <v>8.675360106082577</v>
       </c>
     </row>
     <row r="20">
@@ -1152,13 +1152,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.972101842355398</v>
+        <v>3.849059886781162</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3248492833437174</v>
+        <v>0.459108819825511</v>
       </c>
       <c r="E20" t="n">
-        <v>14.17440967383386</v>
+        <v>8.639100769699633</v>
       </c>
     </row>
     <row r="21">
@@ -1169,13 +1169,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>6.298214609974625</v>
+        <v>3.945589173293421</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.034272526608184</v>
+        <v>0.4490440781928386</v>
       </c>
       <c r="E21" t="n">
-        <v>14.49957502304193</v>
+        <v>8.332543544736707</v>
       </c>
     </row>
   </sheetData>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1832597618212989</v>
+        <v>0.1832593151703689</v>
       </c>
       <c r="D2" t="n">
-        <v>64.91069050829297</v>
+        <v>64.91054339449254</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03151547236047088</v>
+        <v>0.03152020646435556</v>
       </c>
     </row>
     <row r="3">
@@ -1244,13 +1244,13 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2051427144885027</v>
+        <v>0.2051306543793573</v>
       </c>
       <c r="D3" t="n">
-        <v>62.70973679264068</v>
+        <v>62.70973845563132</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3752459776000518</v>
+        <v>0.3752659723634437</v>
       </c>
     </row>
     <row r="4">
@@ -1261,13 +1261,13 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5692739924221781</v>
+        <v>0.5692807456183482</v>
       </c>
       <c r="D4" t="n">
-        <v>59.55289011123391</v>
+        <v>59.55328073675406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6750288794291783</v>
+        <v>0.6750110910288443</v>
       </c>
     </row>
     <row r="5">
@@ -1278,13 +1278,13 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6205182487868987</v>
+        <v>0.6205520912252812</v>
       </c>
       <c r="D5" t="n">
-        <v>58.26048951421221</v>
+        <v>58.26001600137998</v>
       </c>
       <c r="E5" t="n">
-        <v>1.148532245686345</v>
+        <v>1.148630197410455</v>
       </c>
     </row>
     <row r="6">
@@ -1295,13 +1295,13 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9126005957487413</v>
+        <v>0.9120289448120926</v>
       </c>
       <c r="D6" t="n">
-        <v>54.9935779746498</v>
+        <v>55.00174613756139</v>
       </c>
       <c r="E6" t="n">
-        <v>1.561387079815217</v>
+        <v>1.559998187087624</v>
       </c>
     </row>
     <row r="7">
@@ -1312,13 +1312,13 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>1.124562115529959</v>
+        <v>1.12462256130555</v>
       </c>
       <c r="D7" t="n">
-        <v>49.37936019778893</v>
+        <v>49.37827732665512</v>
       </c>
       <c r="E7" t="n">
-        <v>2.320270998103241</v>
+        <v>2.320426425386306</v>
       </c>
     </row>
     <row r="8">
@@ -1329,13 +1329,13 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>1.607700445037913</v>
+        <v>1.608914419726793</v>
       </c>
       <c r="D8" t="n">
-        <v>44.70081402435513</v>
+        <v>44.68306449670162</v>
       </c>
       <c r="E8" t="n">
-        <v>3.446112686527497</v>
+        <v>3.449016431981144</v>
       </c>
     </row>
     <row r="9">
@@ -1346,13 +1346,13 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>2.215801181733167</v>
+        <v>2.218717035580291</v>
       </c>
       <c r="D9" t="n">
-        <v>35.22166389713496</v>
+        <v>35.17998629157122</v>
       </c>
       <c r="E9" t="n">
-        <v>4.891945655815517</v>
+        <v>4.898909679741242</v>
       </c>
     </row>
     <row r="10">
@@ -1363,13 +1363,13 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>2.741641624073679</v>
+        <v>2.744908861870035</v>
       </c>
       <c r="D10" t="n">
-        <v>27.41503429399312</v>
+        <v>27.3681490881294</v>
       </c>
       <c r="E10" t="n">
-        <v>6.52398952934539</v>
+        <v>6.531847887194945</v>
       </c>
     </row>
     <row r="11">
@@ -1380,13 +1380,13 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>3.398029667054353</v>
+        <v>3.397985836506784</v>
       </c>
       <c r="D11" t="n">
-        <v>18.69677200924675</v>
+        <v>18.6975024096481</v>
       </c>
       <c r="E11" t="n">
-        <v>7.586747818863905</v>
+        <v>7.586632532430813</v>
       </c>
     </row>
     <row r="12">
@@ -1397,13 +1397,13 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>3.846998011032007</v>
+        <v>3.848047566237387</v>
       </c>
       <c r="D12" t="n">
-        <v>12.93674465870482</v>
+        <v>12.9217094369282</v>
       </c>
       <c r="E12" t="n">
-        <v>8.73811104036356</v>
+        <v>8.74061614875286</v>
       </c>
     </row>
     <row r="13">
@@ -1414,13 +1414,13 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>4.08032476532205</v>
+        <v>4.081398420295041</v>
       </c>
       <c r="D13" t="n">
-        <v>5.162622057652051</v>
+        <v>5.147436462159241</v>
       </c>
       <c r="E13" t="n">
-        <v>9.128861104392575</v>
+        <v>9.131397545816295</v>
       </c>
     </row>
     <row r="14">
@@ -1431,13 +1431,13 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>4.38114306397634</v>
+        <v>4.381820706845843</v>
       </c>
       <c r="D14" t="n">
-        <v>3.39490062824928</v>
+        <v>3.385357496579307</v>
       </c>
       <c r="E14" t="n">
-        <v>10.48397891704315</v>
+        <v>10.48566733334399</v>
       </c>
     </row>
     <row r="15">
@@ -1448,13 +1448,13 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>4.495477145728444</v>
+        <v>4.49595841541944</v>
       </c>
       <c r="D15" t="n">
-        <v>1.966759576446805</v>
+        <v>1.959929029248171</v>
       </c>
       <c r="E15" t="n">
-        <v>10.06738164420442</v>
+        <v>10.06849782488294</v>
       </c>
     </row>
     <row r="16">
@@ -1465,13 +1465,13 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>4.554926565322601</v>
+        <v>4.55525477525627</v>
       </c>
       <c r="D16" t="n">
-        <v>1.6773062256696</v>
+        <v>1.672527830222423</v>
       </c>
       <c r="E16" t="n">
-        <v>10.80483210392439</v>
+        <v>10.80567242818407</v>
       </c>
     </row>
     <row r="17">
@@ -1482,13 +1482,13 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>4.511971473965491</v>
+        <v>4.512078504229581</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8240208299175646</v>
+        <v>0.8222675862522861</v>
       </c>
       <c r="E17" t="n">
-        <v>10.44457948498985</v>
+        <v>10.44485241483102</v>
       </c>
     </row>
     <row r="18">
@@ -1499,13 +1499,13 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>4.560132724481919</v>
+        <v>4.560203902354304</v>
       </c>
       <c r="D18" t="n">
-        <v>1.302598895609595</v>
+        <v>1.301304373128663</v>
       </c>
       <c r="E18" t="n">
-        <v>10.78733625897535</v>
+        <v>10.78755820154787</v>
       </c>
     </row>
     <row r="19">
@@ -1516,13 +1516,13 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>4.660111154912085</v>
+        <v>4.660134271758485</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4979568651740051</v>
+        <v>0.4976203919260059</v>
       </c>
       <c r="E19" t="n">
-        <v>10.78744147397878</v>
+        <v>10.78751400673643</v>
       </c>
     </row>
     <row r="20">
@@ -1533,13 +1533,13 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>4.734161864192833</v>
+        <v>4.734182311139241</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2793373491063331</v>
+        <v>0.2791980225848746</v>
       </c>
       <c r="E20" t="n">
-        <v>10.65761349773927</v>
+        <v>10.6576344382179</v>
       </c>
     </row>
     <row r="21">
@@ -1550,13 +1550,13 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>4.569591697388417</v>
+        <v>4.569580976158287</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.07630689699839205</v>
+        <v>-0.07630635562043822</v>
       </c>
       <c r="E21" t="n">
-        <v>10.62093063242446</v>
+        <v>10.6209286637015</v>
       </c>
     </row>
   </sheetData>
